--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="H2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="I2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="J2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.23245933333333</v>
+        <v>10.61071066666667</v>
       </c>
       <c r="N2">
-        <v>36.697378</v>
+        <v>31.832132</v>
       </c>
       <c r="O2">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="P2">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="Q2">
-        <v>43.47859269843178</v>
+        <v>35.974861154876</v>
       </c>
       <c r="R2">
-        <v>391.307334285886</v>
+        <v>323.773750393884</v>
       </c>
       <c r="S2">
-        <v>0.03182301551964278</v>
+        <v>0.02288385878190532</v>
       </c>
       <c r="T2">
-        <v>0.03182301551964279</v>
+        <v>0.02288385878190532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="H3">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="I3">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="J3">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>152.268799</v>
       </c>
       <c r="O3">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="P3">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="Q3">
-        <v>180.4061612358348</v>
+        <v>172.085517308257</v>
       </c>
       <c r="R3">
-        <v>1623.655451122513</v>
+        <v>1548.769655774313</v>
       </c>
       <c r="S3">
-        <v>0.1320435578186095</v>
+        <v>0.1094647915259438</v>
       </c>
       <c r="T3">
-        <v>0.1320435578186095</v>
+        <v>0.1094647915259438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="H4">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="I4">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="J4">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.273554666666667</v>
+        <v>12.45411266666667</v>
       </c>
       <c r="N4">
-        <v>21.820664</v>
+        <v>37.362338</v>
       </c>
       <c r="O4">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="P4">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="Q4">
-        <v>25.85284873664089</v>
+        <v>42.224784754334</v>
       </c>
       <c r="R4">
-        <v>232.675638629768</v>
+        <v>380.023062789006</v>
       </c>
       <c r="S4">
-        <v>0.01892231453486706</v>
+        <v>0.02685947854682855</v>
       </c>
       <c r="T4">
-        <v>0.01892231453486706</v>
+        <v>0.02685947854682856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="H5">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="I5">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="J5">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.380492</v>
+        <v>6.451271000000001</v>
       </c>
       <c r="N5">
-        <v>22.141476</v>
+        <v>19.353813</v>
       </c>
       <c r="O5">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="P5">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="Q5">
-        <v>26.232942766268</v>
+        <v>21.872576285259</v>
       </c>
       <c r="R5">
-        <v>236.096484896412</v>
+        <v>196.853186567331</v>
       </c>
       <c r="S5">
-        <v>0.01920051439031416</v>
+        <v>0.0139132975316703</v>
       </c>
       <c r="T5">
-        <v>0.01920051439031416</v>
+        <v>0.01391329753167031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.877361</v>
       </c>
       <c r="I6">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="J6">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.23245933333333</v>
+        <v>10.61071066666667</v>
       </c>
       <c r="N6">
-        <v>36.697378</v>
+        <v>31.832132</v>
       </c>
       <c r="O6">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="P6">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="Q6">
-        <v>142.2119666954953</v>
+        <v>123.3578621292947</v>
       </c>
       <c r="R6">
-        <v>1279.907700259458</v>
+        <v>1110.220759163652</v>
       </c>
       <c r="S6">
-        <v>0.1040883189255779</v>
+        <v>0.07846879198370198</v>
       </c>
       <c r="T6">
-        <v>0.1040883189255779</v>
+        <v>0.07846879198370198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.877361</v>
       </c>
       <c r="I7">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="J7">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>152.268799</v>
       </c>
       <c r="O7">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="P7">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="Q7">
         <v>590.0815413066044</v>
@@ -883,10 +883,10 @@
         <v>5310.733871759439</v>
       </c>
       <c r="S7">
-        <v>0.4318947068296466</v>
+        <v>0.3753549625371976</v>
       </c>
       <c r="T7">
-        <v>0.4318947068296466</v>
+        <v>0.3753549625371976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.877361</v>
       </c>
       <c r="I8">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="J8">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.273554666666667</v>
+        <v>12.45411266666667</v>
       </c>
       <c r="N8">
-        <v>21.820664</v>
+        <v>37.362338</v>
       </c>
       <c r="O8">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="P8">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="Q8">
-        <v>84.56079728752267</v>
+        <v>144.7888611366687</v>
       </c>
       <c r="R8">
-        <v>761.047175587704</v>
+        <v>1303.099750230018</v>
       </c>
       <c r="S8">
-        <v>0.06189205761784607</v>
+        <v>0.09210119914515194</v>
       </c>
       <c r="T8">
-        <v>0.06189205761784609</v>
+        <v>0.09210119914515194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.877361</v>
       </c>
       <c r="I9">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="J9">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.380492</v>
+        <v>6.451271000000001</v>
       </c>
       <c r="N9">
-        <v>22.141476</v>
+        <v>19.353813</v>
       </c>
       <c r="O9">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="P9">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="Q9">
-        <v>85.80402794720401</v>
+        <v>75.00110252527702</v>
       </c>
       <c r="R9">
-        <v>772.236251524836</v>
+        <v>675.0099227274931</v>
       </c>
       <c r="S9">
-        <v>0.06280200769033226</v>
+        <v>0.04770872169003532</v>
       </c>
       <c r="T9">
-        <v>0.06280200769033226</v>
+        <v>0.04770872169003532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="H10">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="I10">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="J10">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.23245933333333</v>
+        <v>10.61071066666667</v>
       </c>
       <c r="N10">
-        <v>36.697378</v>
+        <v>31.832132</v>
       </c>
       <c r="O10">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="P10">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="Q10">
-        <v>29.24208139754555</v>
+        <v>48.23779387467779</v>
       </c>
       <c r="R10">
-        <v>263.17873257791</v>
+        <v>434.1401448721001</v>
       </c>
       <c r="S10">
-        <v>0.02140297448436767</v>
+        <v>0.03068439536782386</v>
       </c>
       <c r="T10">
-        <v>0.02140297448436767</v>
+        <v>0.03068439536782387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="H11">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="I11">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="J11">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>152.268799</v>
       </c>
       <c r="O11">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="P11">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="Q11">
-        <v>121.3344619516006</v>
+        <v>230.7451772223973</v>
       </c>
       <c r="R11">
-        <v>1092.010157564405</v>
+        <v>2076.706595001575</v>
       </c>
       <c r="S11">
-        <v>0.08880757692722105</v>
+        <v>0.1467786081906076</v>
       </c>
       <c r="T11">
-        <v>0.08880757692722106</v>
+        <v>0.1467786081906076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="H12">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="I12">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="J12">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.273554666666667</v>
+        <v>12.45411266666667</v>
       </c>
       <c r="N12">
-        <v>21.820664</v>
+        <v>37.362338</v>
       </c>
       <c r="O12">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="P12">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="Q12">
-        <v>17.38766275989778</v>
+        <v>56.61816051529446</v>
       </c>
       <c r="R12">
-        <v>156.48896483908</v>
+        <v>509.5634446376501</v>
       </c>
       <c r="S12">
-        <v>0.01272644369371458</v>
+        <v>0.03601520473269806</v>
       </c>
       <c r="T12">
-        <v>0.01272644369371458</v>
+        <v>0.03601520473269806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="H13">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="I13">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="J13">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.380492</v>
+        <v>6.451271000000001</v>
       </c>
       <c r="N13">
-        <v>22.141476</v>
+        <v>19.353813</v>
       </c>
       <c r="O13">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="P13">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="Q13">
-        <v>17.64329984158</v>
+        <v>29.32839189605834</v>
       </c>
       <c r="R13">
-        <v>158.78969857422</v>
+        <v>263.9555270645251</v>
       </c>
       <c r="S13">
-        <v>0.01291355055051179</v>
+        <v>0.01865599357174472</v>
       </c>
       <c r="T13">
-        <v>0.01291355055051179</v>
+        <v>0.01865599357174472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="H14">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="I14">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="J14">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.23245933333333</v>
+        <v>10.61071066666667</v>
       </c>
       <c r="N14">
-        <v>36.697378</v>
+        <v>31.832132</v>
       </c>
       <c r="O14">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="P14">
-        <v>0.1575479463924517</v>
+        <v>0.1321838622726938</v>
       </c>
       <c r="Q14">
-        <v>0.3192101037897778</v>
+        <v>0.2308041784213334</v>
       </c>
       <c r="R14">
-        <v>2.872890934108</v>
+        <v>2.077237605792</v>
       </c>
       <c r="S14">
-        <v>0.000233637462863311</v>
+        <v>0.0001468161392626139</v>
       </c>
       <c r="T14">
-        <v>0.0002336374628633111</v>
+        <v>0.0001468161392626139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="H15">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="I15">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="J15">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>152.268799</v>
       </c>
       <c r="O15">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="P15">
-        <v>0.653715275846002</v>
+        <v>0.6323006563130766</v>
       </c>
       <c r="Q15">
-        <v>1.324501688723778</v>
+        <v>1.104050305282667</v>
       </c>
       <c r="R15">
-        <v>11.920515198514</v>
+        <v>9.936452747544001</v>
       </c>
       <c r="S15">
-        <v>0.0009694342705248172</v>
+        <v>0.000702294059327693</v>
       </c>
       <c r="T15">
-        <v>0.0009694342705248174</v>
+        <v>0.000702294059327693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="H16">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="I16">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="J16">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.273554666666667</v>
+        <v>12.45411266666667</v>
       </c>
       <c r="N16">
-        <v>21.820664</v>
+        <v>37.362338</v>
       </c>
       <c r="O16">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="P16">
-        <v>0.09367973924784764</v>
+        <v>0.1551482049765888</v>
       </c>
       <c r="Q16">
-        <v>0.1898058335448889</v>
+        <v>0.2709018587253334</v>
       </c>
       <c r="R16">
-        <v>1.708252501904</v>
+        <v>2.438116728528001</v>
       </c>
       <c r="S16">
-        <v>0.0001389234014199267</v>
+        <v>0.0001723225519102789</v>
       </c>
       <c r="T16">
-        <v>0.0001389234014199268</v>
+        <v>0.0001723225519102789</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="H17">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="I17">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="J17">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.380492</v>
+        <v>6.451271000000001</v>
       </c>
       <c r="N17">
-        <v>22.141476</v>
+        <v>19.353813</v>
       </c>
       <c r="O17">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="P17">
-        <v>0.09505703851369861</v>
+        <v>0.08036727643764076</v>
       </c>
       <c r="Q17">
-        <v>0.192596398904</v>
+        <v>0.1403280467920001</v>
       </c>
       <c r="R17">
-        <v>1.733367590136</v>
+        <v>1.262952421128</v>
       </c>
       <c r="S17">
-        <v>0.0001409658825404064</v>
+        <v>8.926364419042327E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001409658825404064</v>
+        <v>8.926364419042327E-05</v>
       </c>
     </row>
   </sheetData>
